--- a/data/bacterial-metabolites_dose-simicillin_messy.xlsx
+++ b/data/bacterial-metabolites_dose-simicillin_messy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nhp/rproj/course/ASMS_R_Basics/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffsocal/Local/github/ASMS_R_Basics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E3CC3E-B425-254F-8882-E6BC4A211DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28BAC542-B0FC-D84C-A993-1B8236BB9E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2940" yWindow="6120" windowWidth="32140" windowHeight="15440" xr2:uid="{B6F780D9-63D5-6646-B56F-1F6A4C713D34}"/>
+    <workbookView xWindow="0" yWindow="6120" windowWidth="32140" windowHeight="15440" xr2:uid="{B6F780D9-63D5-6646-B56F-1F6A4C713D34}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/data/bacterial-metabolites_dose-simicillin_messy.xlsx
+++ b/data/bacterial-metabolites_dose-simicillin_messy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffsocal/Local/github/ASMS_R_Basics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28BAC542-B0FC-D84C-A993-1B8236BB9E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B308FB-458A-D34B-9282-0A460298AA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="6120" windowWidth="32140" windowHeight="15440" xr2:uid="{B6F780D9-63D5-6646-B56F-1F6A4C713D34}"/>
   </bookViews>
@@ -467,7 +467,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -553,7 +553,7 @@
         <v>1356</v>
       </c>
       <c r="L2">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
